--- a/srv/handlers/custom_handler/CSV/SupplierNetwork.xlsx
+++ b/srv/handlers/custom_handler/CSV/SupplierNetwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonard.barascu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55890194-1A25-2943-B9EA-571B05A3492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24DE0E34-F36A-E64C-ADB6-0877F752AD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{1840B4A2-208D-EC49-9D63-BFCA96B7CCF1}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{C4CDCF83-38E2-5543-9B42-FDA91A89A2C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,64 +36,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>ACM_26977200</t>
   </si>
   <si>
-    <t>ACM_26977146</t>
-  </si>
-  <si>
-    <t>ACM_57544232</t>
-  </si>
-  <si>
     <t>ACM_60251929</t>
   </si>
   <si>
+    <t>ACM_48779666</t>
+  </si>
+  <si>
+    <t>ACM_60250792</t>
+  </si>
+  <si>
+    <t>ACM_60466625</t>
+  </si>
+  <si>
+    <t>ACM_60251155</t>
+  </si>
+  <si>
+    <t>ACM_60251101</t>
+  </si>
+  <si>
+    <t>ACM_60251945</t>
+  </si>
+  <si>
     <t>ACM_60463392</t>
   </si>
   <si>
-    <t>ACM_28203679</t>
-  </si>
-  <si>
-    <t>ACM_60466625</t>
-  </si>
-  <si>
-    <t>ACM_60251155</t>
-  </si>
-  <si>
-    <t>ACM_28172094</t>
+    <t>ACM_60252436</t>
+  </si>
+  <si>
+    <t>ACM_60473417</t>
   </si>
   <si>
     <t>ACM_60466584</t>
   </si>
   <si>
+    <t>ACM_60466735</t>
+  </si>
+  <si>
+    <t>ACM_60466742</t>
+  </si>
+  <si>
+    <t>ACM_60473419</t>
+  </si>
+  <si>
     <t>ACM_60467529</t>
   </si>
   <si>
-    <t>ACM_60250792</t>
-  </si>
-  <si>
-    <t>ACM_60251942</t>
+    <t>ACM_60251124</t>
   </si>
   <si>
     <t>ACM_60251937</t>
   </si>
   <si>
-    <t>ACM_60252436</t>
-  </si>
-  <si>
     <t>SupplierIDParent</t>
   </si>
   <si>
-    <t>SuppleirIDChild</t>
+    <t>SupplierIDChild</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,13 +111,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -137,8 +139,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,173 +474,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6F0BB3-6AFE-D14B-81BD-3674C9B3C8C2}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B27AA98-7140-8940-B249-BF4A3C59EB47}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>